--- a/Problem - Practice-DSA.xlsx
+++ b/Problem - Practice-DSA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="solution" sheetId="3" r:id="rId6"/>
     <sheet name="Practice" sheetId="7" r:id="rId7"/>
     <sheet name="seanparshad" sheetId="8" r:id="rId8"/>
+    <sheet name="More practice" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="263">
   <si>
     <t>Srno</t>
   </si>
@@ -826,12 +827,18 @@
   <si>
     <t>with get n natural number sum and subtract with sum array element , second approach with XOR</t>
   </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/convert-array-into-zig-zag-fashion1638</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-the-odd-occurence4820</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,6 +872,12 @@
       <color rgb="FF212121"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -918,7 +931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -956,6 +969,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3290,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3343,4 +3359,53 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="64.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/Problem - Practice-DSA.xlsx
+++ b/Problem - Practice-DSA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Practice" sheetId="7" r:id="rId7"/>
     <sheet name="seanparshad" sheetId="8" r:id="rId8"/>
     <sheet name="More practice" sheetId="9" r:id="rId9"/>
+    <sheet name="SDESkills" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="266">
   <si>
     <t>Srno</t>
   </si>
@@ -832,6 +833,15 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/find-the-odd-occurence4820</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-subarray-of-1s-after-deleting-one-element/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-the-last-k-numbers/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-wear-different-hats-to-each-other/</t>
   </si>
 </sst>
 </file>
@@ -2565,6 +2575,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="59.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
@@ -3365,7 +3434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Problem - Practice-DSA.xlsx
+++ b/Problem - Practice-DSA.xlsx
@@ -9,19 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="must_do" sheetId="6" r:id="rId2"/>
-    <sheet name="more problem" sheetId="4" r:id="rId3"/>
-    <sheet name="Behavour" sheetId="5" r:id="rId4"/>
-    <sheet name="Dout" sheetId="2" r:id="rId5"/>
-    <sheet name="solution" sheetId="3" r:id="rId6"/>
-    <sheet name="Practice" sheetId="7" r:id="rId7"/>
-    <sheet name="seanparshad" sheetId="8" r:id="rId8"/>
-    <sheet name="More practice" sheetId="9" r:id="rId9"/>
-    <sheet name="SDESkills" sheetId="10" r:id="rId10"/>
+    <sheet name="Githubrecord" sheetId="11" r:id="rId1"/>
+    <sheet name="Desgine pattern" sheetId="12" r:id="rId2"/>
+    <sheet name="System Degine" sheetId="15" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="must_do" sheetId="6" r:id="rId5"/>
+    <sheet name="more problem" sheetId="4" r:id="rId6"/>
+    <sheet name="Behavour" sheetId="5" r:id="rId7"/>
+    <sheet name="Dout" sheetId="2" r:id="rId8"/>
+    <sheet name="solution" sheetId="3" r:id="rId9"/>
+    <sheet name="Practice" sheetId="7" r:id="rId10"/>
+    <sheet name="seanparshad" sheetId="8" r:id="rId11"/>
+    <sheet name="More practice" sheetId="9" r:id="rId12"/>
+    <sheet name="SDESkills" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="318">
   <si>
     <t>Srno</t>
   </si>
@@ -843,12 +846,168 @@
   <si>
     <t>https://leetcode.com/problems/number-of-ways-to-wear-different-hats-to-each-other/</t>
   </si>
+  <si>
+    <t>Problem List</t>
+  </si>
+  <si>
+    <t>Attempt</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remarkrs</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/activity-selection-1587115620/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/at-least-two-greater-elements4625/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/average4856/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/check-if-two-arrays-are-equal-or-not3847/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/compete-the-skills5807/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/convert-array-into-zig-zag-fashion1638/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/display-longest-name0853/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-the-odd-occurence4820/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-index4752/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/kadanes-algorithm-1587115620/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/maximum-repeating-number4858/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/perfect-arrays4645/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/print-alternate-elements-of-an-array/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/print-the-left-element2009/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/-rearrange-array-alternately-1587115620/1</t>
+  </si>
+  <si>
+    <t>Path github</t>
+  </si>
+  <si>
+    <t>DSASheet\Array-string\GeekForGeeks\</t>
+  </si>
+  <si>
+    <t>DSASheet\Recursion\</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/subset-sums2234/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/permutations-of-a-given-string-1587115620/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/shuffle-integers2401/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/power-of-numbers-1587115620/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/pascal-triangle0652/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/josephus-problem/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/second-largest3735/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/segregate-even-and-odd-numbers4629/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/smaller-and-larger4005/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/sort-an-array-of-0s-1s-and-2s4231/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/sum-of-array2326/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/third-largest-element/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/trapping-rain-water-1587115621/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/value-equal-to-index-value1330/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/all-numbers-with-specific-difference3558/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/ffd66b6a0bf7cefb9987fa455974b6ea5695709e/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-pair-given-difference1559/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/find-the-closest-number5513/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/first-and-last-occurrences-of-x2041/1</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/magical-number-1587115620/1</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>DSASheet\BinarySearch\</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decorator Pattern </t>
+  </si>
+  <si>
+    <t>Link1</t>
+  </si>
+  <si>
+    <t>Rate Limiter</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,8 +1048,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -927,6 +1093,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -941,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -982,6 +1166,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1264,6 +1459,1307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="65.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="6" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.81640625" customWidth="1"/>
+    <col min="9" max="9" width="43.90625" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H1" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H2" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H3" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>44830</v>
+      </c>
+      <c r="G7" s="7">
+        <f>F7+5</f>
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44830</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" ref="G8:G45" si="0">F8+5</f>
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>44830</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <f>F20+5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <f>F26+5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G38" s="7">
+        <f>F38+5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="G39" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>33</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" t="s">
+        <v>312</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" t="s">
+        <v>312</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B11" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B18" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B17" r:id="rId10"/>
+    <hyperlink ref="B19" r:id="rId11"/>
+    <hyperlink ref="B20" r:id="rId12"/>
+    <hyperlink ref="B21" r:id="rId13"/>
+    <hyperlink ref="B22" r:id="rId14"/>
+    <hyperlink ref="B23" r:id="rId15"/>
+    <hyperlink ref="B24" r:id="rId16"/>
+    <hyperlink ref="B25" r:id="rId17"/>
+    <hyperlink ref="B26" r:id="rId18"/>
+    <hyperlink ref="B27" r:id="rId19"/>
+    <hyperlink ref="B28" r:id="rId20"/>
+    <hyperlink ref="B29" r:id="rId21"/>
+    <hyperlink ref="B30" r:id="rId22"/>
+    <hyperlink ref="B31" r:id="rId23"/>
+    <hyperlink ref="B32" r:id="rId24"/>
+    <hyperlink ref="B33" r:id="rId25"/>
+    <hyperlink ref="B34" r:id="rId26"/>
+    <hyperlink ref="B35" r:id="rId27"/>
+    <hyperlink ref="B36" r:id="rId28"/>
+    <hyperlink ref="B37" r:id="rId29"/>
+    <hyperlink ref="B40" r:id="rId30"/>
+    <hyperlink ref="B41" r:id="rId31"/>
+    <hyperlink ref="B42" r:id="rId32"/>
+    <hyperlink ref="B43" r:id="rId33"/>
+    <hyperlink ref="B44" r:id="rId34"/>
+    <hyperlink ref="B45" r:id="rId35"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="60.90625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.54296875" customWidth="1"/>
+    <col min="4" max="4" width="41.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="47.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="64.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="59.1796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="28.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="G1" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>44833</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="G1" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2575,66 +4071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="59.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -2933,7 +4370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
@@ -2995,7 +4432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B40"/>
   <sheetViews>
@@ -3198,7 +4635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C4"/>
   <sheetViews>
@@ -3240,7 +4677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3258,223 +4695,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="60.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.54296875" customWidth="1"/>
-    <col min="4" max="4" width="41.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="47.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="47.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="64.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-</worksheet>
 </file>
--- a/Problem - Practice-DSA.xlsx
+++ b/Problem - Practice-DSA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Githubrecord" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="319">
   <si>
     <t>Srno</t>
   </si>
@@ -1001,6 +1001,9 @@
   </si>
   <si>
     <t>Rate Limiter</t>
+  </si>
+  <si>
+    <t>Factory Desgine pattern</t>
   </si>
 </sst>
 </file>
@@ -2587,16 +2590,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="28.81640625" customWidth="1"/>
     <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2667,6 +2671,20 @@
         <v>44833</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44833</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2679,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Problem - Practice-DSA.xlsx
+++ b/Problem - Practice-DSA.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250"/>
   </bookViews>
   <sheets>
     <sheet name="Githubrecord" sheetId="11" r:id="rId1"/>
-    <sheet name="Desgine pattern" sheetId="12" r:id="rId2"/>
-    <sheet name="System Degine" sheetId="15" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="must_do" sheetId="6" r:id="rId5"/>
-    <sheet name="more problem" sheetId="4" r:id="rId6"/>
-    <sheet name="Behavour" sheetId="5" r:id="rId7"/>
-    <sheet name="Dout" sheetId="2" r:id="rId8"/>
-    <sheet name="solution" sheetId="3" r:id="rId9"/>
-    <sheet name="Practice" sheetId="7" r:id="rId10"/>
-    <sheet name="seanparshad" sheetId="8" r:id="rId11"/>
-    <sheet name="More practice" sheetId="9" r:id="rId12"/>
-    <sheet name="SDESkills" sheetId="10" r:id="rId13"/>
+    <sheet name="StudyDSA" sheetId="16" r:id="rId2"/>
+    <sheet name="Desgine pattern" sheetId="12" r:id="rId3"/>
+    <sheet name="System Degine" sheetId="15" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="must_do" sheetId="6" r:id="rId6"/>
+    <sheet name="more problem" sheetId="4" r:id="rId7"/>
+    <sheet name="Behavour" sheetId="5" r:id="rId8"/>
+    <sheet name="Dout" sheetId="2" r:id="rId9"/>
+    <sheet name="solution" sheetId="3" r:id="rId10"/>
+    <sheet name="Practice" sheetId="7" r:id="rId11"/>
+    <sheet name="seanparshad" sheetId="8" r:id="rId12"/>
+    <sheet name="More practice" sheetId="9" r:id="rId13"/>
+    <sheet name="SDESkills" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="350">
   <si>
     <t>Srno</t>
   </si>
@@ -1004,6 +1005,99 @@
   </si>
   <si>
     <t>Factory Desgine pattern</t>
+  </si>
+  <si>
+    <t>1. initilize vector and putting n values from loop then skip the value by index = (index+k-1)%(pos.size())  and then pos.erase(pos.begin()+index); erase the array , return 0 index element 2. this can be handle recursive 3. we can take counter value and take the set for checking the person which is killed if k become 0 means person killed and insert into set and 1 decrement by n after killing it</t>
+  </si>
+  <si>
+    <t>recursion uses for it is solve by 2d array , by default n==1 means push 1 then call recursion function after that loop through n element and check first and last index and putting one in ans 2d array and except 0 and n-1 index , sum the arr[n-2][i]+arr[n-2][i-1] and push into array 2. solve by iterative solution by 2d array with two loops within one loop declare the vector and second loop will run j&lt;i+1 and index 0 and index n puting one and then except 0 and n index , sum the value v[i-1][j-1]+v[i][j] and add into 2d array.</t>
+  </si>
+  <si>
+    <t>Recursive base case r==0 return 1 and power divide by 2 and multiply return value and multiply with N if return value 2mod==0 return  value itself</t>
+  </si>
+  <si>
+    <t>end date always less than of next start date , here use the vector of vector end,start and considered 1 activity by default and start loop from 1 and assinged the first date in current date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">two approach , sort two array and check elements , 2. use multiset and insert first array element  and find element if found in second array, erase from multiset and check multiset empty return true </t>
+  </si>
+  <si>
+    <t xml:space="preserve">looking the element in alternate way arr[i]&gt;arr[i+1] and arr[i]&lt;arr[i+1] , maintain flag to make zig and zag </t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/equilibrium-index-of-an-array/1</t>
+  </si>
+  <si>
+    <t>get whole sum and subtract element one by one then check element equal to remaining sum after adding elelemnt in mainitaing left sum of element.</t>
+  </si>
+  <si>
+    <t>ignore negative element and keeping max sum in virable and also if we found negative sum keep to positive by zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequecy Array or use map 2. use vector&lt;int&gt; hash(k, 0) and increment 1 and check max </t>
+  </si>
+  <si>
+    <t>get first higher element and use another loop and get second higest which is less than first higher element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use three variable middle start and end , if middle =0 then swap middle and start increse by 1 in middle and start if middle 1 then increment 1 to middle if middle 2 then swap with end and decrement 1 in end </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/average-of-levels-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Btree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use dfs (level order traversal) use while and for loop  </t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-k-th-smallest-element-in-bst-order-statistics-in-bst/</t>
+  </si>
+  <si>
+    <t>inorder traversl , find first in left and then right subtree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/second-largest-element-in-binary-search-tree-bst/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-if-each-internal-node-of-a-bst-has-exactly-one-child/</t>
+  </si>
+  <si>
+    <t>confuse</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/inorder-predecessor-successor-given-key-bst/</t>
+  </si>
+  <si>
+    <t>need video</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-a-pair-with-given-sum-in-bst/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-pair-given-sum-bst/</t>
+  </si>
+  <si>
+    <t>use unordered set , target-data</t>
+  </si>
+  <si>
+    <t>D:\netcore\CodingInterview\DSASheet\BinarySearchTree\Find_a_pair_with_given_target_in_BST.cpp</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-bst-subtrees-that-lie-in-given-range/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/merge-two-balanced-binary-search-trees/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/floor-and-ceil-from-a-bst/</t>
+  </si>
+  <si>
+    <t>UniquePaths</t>
+  </si>
+  <si>
+    <t>think as recursive , explore right and down step if start and end reach grid[m-1][n-1] return 1 , left + down</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1179,6 +1273,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1462,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1474,8 +1574,8 @@
     <col min="3" max="3" width="6.81640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="6" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.81640625" customWidth="1"/>
-    <col min="9" max="9" width="43.90625" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" customWidth="1"/>
+    <col min="9" max="9" width="64.1796875" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1499,7 +1599,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1622,7 @@
       <c r="H5" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="21" t="s">
         <v>272</v>
       </c>
       <c r="J5" s="19"/>
@@ -1534,7 +1634,7 @@
       </c>
       <c r="C6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1549,14 +1649,17 @@
         <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>44830</v>
+        <v>44861</v>
       </c>
       <c r="G7" s="7">
         <f>F7+5</f>
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>44866</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="116" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1571,14 +1674,17 @@
         <v>1</v>
       </c>
       <c r="F8" s="7">
-        <v>44830</v>
+        <v>44862</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" ref="G8:G45" si="0">F8+5</f>
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+        <f t="shared" ref="G8:G49" si="0">F8+5</f>
+        <v>44867</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1593,11 +1699,14 @@
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>44830</v>
+        <v>44863</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>44868</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1666,85 +1775,57 @@
         <v>44836</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
+    <row r="13" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="G14" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>273</v>
-      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="23"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
       <c r="C15" s="23"/>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B17" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="22"/>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" t="s">
@@ -1757,15 +1838,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I18" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="23"/>
+        <v>274</v>
+      </c>
+      <c r="C19" s="24"/>
       <c r="D19" t="s">
         <v>56</v>
       </c>
@@ -1777,14 +1861,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C20" s="23"/>
+        <v>275</v>
+      </c>
+      <c r="C20" s="24"/>
       <c r="D20" t="s">
         <v>56</v>
       </c>
@@ -1792,16 +1876,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="7">
-        <f>F20+5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" t="s">
@@ -1814,13 +1898,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="I21" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" t="s">
@@ -1834,12 +1921,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" t="s">
@@ -1849,37 +1936,34 @@
         <v>1</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f>F23+5</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>16</v>
-      </c>
+      <c r="I23" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="G24" s="7"/>
+      <c r="I24" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" s="23"/>
+        <v>279</v>
+      </c>
+      <c r="C25" s="24"/>
       <c r="D25" t="s">
         <v>56</v>
       </c>
@@ -1891,12 +1975,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" t="s">
@@ -1906,18 +1990,18 @@
         <v>1</v>
       </c>
       <c r="G26" s="7">
-        <f>F26+5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C27" s="23"/>
+        <v>281</v>
+      </c>
+      <c r="C27" s="24"/>
       <c r="D27" t="s">
         <v>56</v>
       </c>
@@ -1929,12 +2013,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" t="s">
@@ -1947,13 +2031,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="I28" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" t="s">
@@ -1966,15 +2053,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I29" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" s="23"/>
+        <v>284</v>
+      </c>
+      <c r="C30" s="24"/>
       <c r="D30" t="s">
         <v>56</v>
       </c>
@@ -1982,18 +2072,18 @@
         <v>1</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="0"/>
+        <f>F30+5</f>
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="C31" s="23"/>
+        <v>285</v>
+      </c>
+      <c r="C31" s="24"/>
       <c r="D31" t="s">
         <v>56</v>
       </c>
@@ -2005,12 +2095,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" t="s">
@@ -2024,14 +2114,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C33" s="23"/>
+        <v>287</v>
+      </c>
+      <c r="C33" s="25"/>
       <c r="D33" t="s">
         <v>56</v>
       </c>
@@ -2043,12 +2133,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" t="s">
@@ -2061,15 +2151,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I34" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="C35" s="23"/>
+        <v>298</v>
+      </c>
+      <c r="C35" s="25"/>
       <c r="D35" t="s">
         <v>56</v>
       </c>
@@ -2081,14 +2174,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C36" s="23"/>
+        <v>299</v>
+      </c>
+      <c r="C36" s="24"/>
       <c r="D36" t="s">
         <v>56</v>
       </c>
@@ -2100,12 +2193,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" t="s">
@@ -2118,117 +2211,108 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I37" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>26</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
       <c r="G38" s="7">
-        <f>F38+5</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="C39" s="22"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
       <c r="G39" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="E40">
         <v>1</v>
-      </c>
-      <c r="F40" s="7">
-        <v>44831</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="0"/>
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>56</v>
       </c>
       <c r="E41">
         <v>1</v>
-      </c>
-      <c r="F41" s="7">
-        <v>44831</v>
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>32</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" t="s">
-        <v>312</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="7">
-        <v>44831</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G42" s="7">
-        <f t="shared" si="0"/>
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>33</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" t="s">
-        <v>312</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="7">
-        <v>44831</v>
-      </c>
+        <f>F42+5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B43" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="22"/>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" t="s">
@@ -2245,12 +2329,12 @@
         <v>44836</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" t="s">
@@ -2263,6 +2347,94 @@
         <v>44831</v>
       </c>
       <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" t="s">
+        <v>312</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>33</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" t="s">
+        <v>312</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>34</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" t="s">
+        <v>312</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="0"/>
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G49" s="7">
         <f t="shared" si="0"/>
         <v>44836</v>
       </c>
@@ -2274,43 +2446,64 @@
     <hyperlink ref="B9" r:id="rId3"/>
     <hyperlink ref="B10" r:id="rId4"/>
     <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B15" r:id="rId6"/>
-    <hyperlink ref="B16" r:id="rId7"/>
-    <hyperlink ref="B18" r:id="rId8"/>
+    <hyperlink ref="B18" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B21" r:id="rId8"/>
     <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B17" r:id="rId10"/>
-    <hyperlink ref="B19" r:id="rId11"/>
-    <hyperlink ref="B20" r:id="rId12"/>
-    <hyperlink ref="B21" r:id="rId13"/>
-    <hyperlink ref="B22" r:id="rId14"/>
-    <hyperlink ref="B23" r:id="rId15"/>
-    <hyperlink ref="B24" r:id="rId16"/>
-    <hyperlink ref="B25" r:id="rId17"/>
-    <hyperlink ref="B26" r:id="rId18"/>
-    <hyperlink ref="B27" r:id="rId19"/>
-    <hyperlink ref="B28" r:id="rId20"/>
-    <hyperlink ref="B29" r:id="rId21"/>
-    <hyperlink ref="B30" r:id="rId22"/>
-    <hyperlink ref="B31" r:id="rId23"/>
-    <hyperlink ref="B32" r:id="rId24"/>
-    <hyperlink ref="B33" r:id="rId25"/>
-    <hyperlink ref="B34" r:id="rId26"/>
-    <hyperlink ref="B35" r:id="rId27"/>
-    <hyperlink ref="B36" r:id="rId28"/>
-    <hyperlink ref="B37" r:id="rId29"/>
-    <hyperlink ref="B40" r:id="rId30"/>
-    <hyperlink ref="B41" r:id="rId31"/>
-    <hyperlink ref="B42" r:id="rId32"/>
-    <hyperlink ref="B43" r:id="rId33"/>
-    <hyperlink ref="B44" r:id="rId34"/>
-    <hyperlink ref="B45" r:id="rId35"/>
+    <hyperlink ref="B20" r:id="rId10"/>
+    <hyperlink ref="B22" r:id="rId11"/>
+    <hyperlink ref="B23" r:id="rId12"/>
+    <hyperlink ref="B25" r:id="rId13"/>
+    <hyperlink ref="B26" r:id="rId14"/>
+    <hyperlink ref="B27" r:id="rId15"/>
+    <hyperlink ref="B28" r:id="rId16"/>
+    <hyperlink ref="B29" r:id="rId17"/>
+    <hyperlink ref="B30" r:id="rId18"/>
+    <hyperlink ref="B31" r:id="rId19"/>
+    <hyperlink ref="B32" r:id="rId20"/>
+    <hyperlink ref="B33" r:id="rId21"/>
+    <hyperlink ref="B34" r:id="rId22"/>
+    <hyperlink ref="B35" r:id="rId23"/>
+    <hyperlink ref="B36" r:id="rId24"/>
+    <hyperlink ref="B37" r:id="rId25"/>
+    <hyperlink ref="B38" r:id="rId26"/>
+    <hyperlink ref="B39" r:id="rId27"/>
+    <hyperlink ref="B40" r:id="rId28"/>
+    <hyperlink ref="B41" r:id="rId29"/>
+    <hyperlink ref="B44" r:id="rId30"/>
+    <hyperlink ref="B45" r:id="rId31"/>
+    <hyperlink ref="B46" r:id="rId32"/>
+    <hyperlink ref="B47" r:id="rId33"/>
+    <hyperlink ref="B48" r:id="rId34"/>
+    <hyperlink ref="B49" r:id="rId35"/>
+    <hyperlink ref="B24" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D8"/>
   <sheetViews>
@@ -2421,12 +2614,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2461,6 +2654,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="12" t="s">
         <v>259</v>
       </c>
@@ -2469,6 +2665,20 @@
       </c>
       <c r="D3" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2477,10 +2687,11 @@
     <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B5"/>
   <sheetViews>
@@ -2529,7 +2740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2590,9 +2801,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="68.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="3"/>
+      <c r="G1" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="3"/>
+      <c r="G3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" t="s">
+        <v>343</v>
+      </c>
+      <c r="I11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="H14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A9" r:id="rId2"/>
+    <hyperlink ref="A10" r:id="rId3"/>
+    <hyperlink ref="A11" r:id="rId4"/>
+    <hyperlink ref="A12" r:id="rId5"/>
+    <hyperlink ref="A13" r:id="rId6"/>
+    <hyperlink ref="A14" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2693,7 +3056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -2776,7 +3139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
@@ -4089,11 +4452,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -4388,7 +4751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
@@ -4450,7 +4813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B40"/>
   <sheetViews>
@@ -4653,7 +5016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C4"/>
   <sheetViews>
@@ -4693,24 +5056,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Problem - Practice-DSA.xlsx
+++ b/Problem - Practice-DSA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Githubrecord" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="458">
   <si>
     <t>Srno</t>
   </si>
@@ -1098,6 +1098,330 @@
   </si>
   <si>
     <t>think as recursive , explore right and down step if start and end reach grid[m-1][n-1] return 1 , left + down</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/tiling-problem/</t>
+  </si>
+  <si>
+    <t>c(n-1)+c(n-2)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/gold-mine-problem/</t>
+  </si>
+  <si>
+    <t>Maximum Segment Sum After Removals</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-segment-sum-after-removals/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefix sum </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-matrix-zeroes/</t>
+  </si>
+  <si>
+    <t>keep track row and track</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-all-possible-paths-from-top-left-to-bottom-right3011/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add all possible path by traveling right and down </t>
+  </si>
+  <si>
+    <t>1. Roman to Integer</t>
+  </si>
+  <si>
+    <t>2. Valid Parentheses</t>
+  </si>
+  <si>
+    <t>3. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>4. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>5. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>6. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>7. Min Stack</t>
+  </si>
+  <si>
+    <t>8. Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>9. Majority Element</t>
+  </si>
+  <si>
+    <t>10. Factorial Trailing Zeroes</t>
+  </si>
+  <si>
+    <t>11. Rotate Array</t>
+  </si>
+  <si>
+    <t>12. House Robber</t>
+  </si>
+  <si>
+    <t>13. Happy Number</t>
+  </si>
+  <si>
+    <t>14. Count Primes</t>
+  </si>
+  <si>
+    <t>15. Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>16. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>17. Valid Anagram</t>
+  </si>
+  <si>
+    <t>18. Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>19. Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>20. Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>21. Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>22. Can Place Flowers</t>
+  </si>
+  <si>
+    <t>23. Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>24. Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>25. Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>26. Longest Continuous Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>27. N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>28. Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>29. Design HashSet</t>
+  </si>
+  <si>
+    <t>30. Maximize Distance to Closest Person</t>
+  </si>
+  <si>
+    <t>31. Peak Index in a Mountain Array</t>
+  </si>
+  <si>
+    <t>32. Find Words That Can Be Formed by Characters</t>
+  </si>
+  <si>
+    <t>Pooja List Eassy</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>1. Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>2. Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>3. Container With Most Water</t>
+  </si>
+  <si>
+    <t>4. Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>5. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>6. Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>7. Divide Two Integers</t>
+  </si>
+  <si>
+    <t>8. Next Permutation</t>
+  </si>
+  <si>
+    <t>9. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>10. Permutations</t>
+  </si>
+  <si>
+    <t>11. Rotate Image</t>
+  </si>
+  <si>
+    <t>12. Group Anagrams</t>
+  </si>
+  <si>
+    <t>13. Merge Intervals</t>
+  </si>
+  <si>
+    <t>14. Sort Colors</t>
+  </si>
+  <si>
+    <t>15. Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>16. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>17. Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>18. Populating Next Right Pointers in Each Node II</t>
+  </si>
+  <si>
+    <t>19. Single Number II</t>
+  </si>
+  <si>
+    <t>20. Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>21. Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>22. LRU Cache</t>
+  </si>
+  <si>
+    <t>23. Insertion Sort List</t>
+  </si>
+  <si>
+    <t>24. Sort List</t>
+  </si>
+  <si>
+    <t>25. Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>26. Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>27. Largest Number</t>
+  </si>
+  <si>
+    <t>28. Number of Islands</t>
+  </si>
+  <si>
+    <t>29. Course Schedule</t>
+  </si>
+  <si>
+    <t>30. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>31. Course Schedule II</t>
+  </si>
+  <si>
+    <t>32. House Robber II</t>
+  </si>
+  <si>
+    <t>33. Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>34. Combination Sum III</t>
+  </si>
+  <si>
+    <t>35. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>36. Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>37. Find the Celebrity</t>
+  </si>
+  <si>
+    <t>38. Game of Life</t>
+  </si>
+  <si>
+    <t>39. Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>40. Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>41. Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>42. Counting Bits</t>
+  </si>
+  <si>
+    <t>43. Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>44. Design Twitter</t>
+  </si>
+  <si>
+    <t>45. Combination Sum IV</t>
+  </si>
+  <si>
+    <t>46. Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>47. Maximum XOR of Two Numbers in an Array</t>
+  </si>
+  <si>
+    <t>48. Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>49. Sequence Reconstruction</t>
+  </si>
+  <si>
+    <t>50. 4Sum II</t>
+  </si>
+  <si>
+    <t>51. Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>52. Contiguous Array</t>
+  </si>
+  <si>
+    <t>53. Minesweeper</t>
+  </si>
+  <si>
+    <t>54. Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>55. Partition Labels</t>
+  </si>
+  <si>
+    <t>56. Reorganize String</t>
+  </si>
+  <si>
+    <t>57. Sum of Subarray Minimums</t>
+  </si>
+  <si>
+    <t>58. Remove Zero Sum Consecutive Nodes from Linked List</t>
+  </si>
+  <si>
+    <t>59. Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/tallest-billboard/</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/tallest-billboard/discuss/297742/C%2B%2B-DP-solution-with-explanation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-roman/</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1280,6 +1604,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1562,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1793,13 +2120,20 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>350</v>
+      </c>
       <c r="C14" s="23"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
+      <c r="I14" s="3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
+      <c r="B15" s="12" t="s">
+        <v>352</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2417,7 +2751,7 @@
         <v>44836</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>35</v>
       </c>
@@ -2437,6 +2771,25 @@
       <c r="G49" s="7">
         <f t="shared" si="0"/>
         <v>44836</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="B51" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2477,9 +2830,13 @@
     <hyperlink ref="B48" r:id="rId34"/>
     <hyperlink ref="B49" r:id="rId35"/>
     <hyperlink ref="B24" r:id="rId36"/>
+    <hyperlink ref="B14" r:id="rId37"/>
+    <hyperlink ref="B15" r:id="rId38"/>
+    <hyperlink ref="B50" r:id="rId39"/>
+    <hyperlink ref="B51" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -2693,40 +3050,55 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="26.453125" style="3" customWidth="1"/>
     <col min="2" max="2" width="64.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="18" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2734,9 +3106,10 @@
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2801,153 +3174,731 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="68.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.90625" customWidth="1"/>
+    <col min="2" max="2" width="64.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3"/>
-      <c r="G1" s="20" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="3"/>
+      <c r="H1" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="3"/>
+      <c r="H2" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>343</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="I16" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="26" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="26" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="26" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="26" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="26" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="26" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="26" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="26" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="26" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="26" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="26" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="26" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="26" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="26" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="26" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="26" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="26" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="26" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="26" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="26" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="26" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="26" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="26" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="26" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="26" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="26" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="B109" s="26" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-    <hyperlink ref="A10" r:id="rId3"/>
-    <hyperlink ref="A11" r:id="rId4"/>
-    <hyperlink ref="A12" r:id="rId5"/>
-    <hyperlink ref="A13" r:id="rId6"/>
-    <hyperlink ref="A14" r:id="rId7"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B18" r:id="rId8" display="https://leetcode.com/problems/roman-to-integer"/>
+    <hyperlink ref="B19" r:id="rId9" display="https://leetcode.com/problems/valid-parentheses"/>
+    <hyperlink ref="B20" r:id="rId10" display="https://leetcode.com/problems/merge-two-sorted-lists"/>
+    <hyperlink ref="B21" r:id="rId11" display="https://leetcode.com/problems/maximum-subarray"/>
+    <hyperlink ref="B22" r:id="rId12" display="https://leetcode.com/problems/merge-sorted-array"/>
+    <hyperlink ref="B23" r:id="rId13" display="https://leetcode.com/problems/linked-list-cycle"/>
+    <hyperlink ref="B24" r:id="rId14" display="https://leetcode.com/problems/min-stack"/>
+    <hyperlink ref="B25" r:id="rId15" display="https://leetcode.com/problems/intersection-of-two-linked-lists"/>
+    <hyperlink ref="B26" r:id="rId16" display="https://leetcode.com/problems/majority-element"/>
+    <hyperlink ref="B27" r:id="rId17" display="https://leetcode.com/problems/factorial-trailing-zeroes"/>
+    <hyperlink ref="B28" r:id="rId18" display="https://leetcode.com/problems/rotate-array"/>
+    <hyperlink ref="B29" r:id="rId19" display="https://leetcode.com/problems/house-robber"/>
+    <hyperlink ref="B30" r:id="rId20" display="https://leetcode.com/problems/happy-number"/>
+    <hyperlink ref="B31" r:id="rId21" display="https://leetcode.com/problems/count-primes"/>
+    <hyperlink ref="B32" r:id="rId22" display="https://leetcode.com/problems/isomorphic-strings"/>
+    <hyperlink ref="B33" r:id="rId23" display="https://leetcode.com/problems/invert-binary-tree"/>
+    <hyperlink ref="B34" r:id="rId24" display="https://leetcode.com/problems/valid-anagram"/>
+    <hyperlink ref="B35" r:id="rId25" display="https://leetcode.com/problems/sum-of-two-integers"/>
+    <hyperlink ref="B36" r:id="rId26" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array"/>
+    <hyperlink ref="B37" r:id="rId27" display="https://leetcode.com/problems/reverse-words-in-a-string-iii"/>
+    <hyperlink ref="B38" r:id="rId28" display="https://leetcode.com/problems/subtree-of-another-tree"/>
+    <hyperlink ref="B39" r:id="rId29" display="https://leetcode.com/problems/can-place-flowers"/>
+    <hyperlink ref="B40" r:id="rId30" display="https://leetcode.com/problems/merge-two-binary-trees"/>
+    <hyperlink ref="B41" r:id="rId31" display="https://leetcode.com/problems/non-decreasing-array"/>
+    <hyperlink ref="B42" r:id="rId32" display="https://leetcode.com/problems/trim-a-binary-search-tree"/>
+    <hyperlink ref="B43" r:id="rId33" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence"/>
+    <hyperlink ref="B44" r:id="rId34" display="https://leetcode.com/problems/n-ary-tree-preorder-traversal"/>
+    <hyperlink ref="B45" r:id="rId35" display="https://leetcode.com/problems/kth-largest-element-in-a-stream"/>
+    <hyperlink ref="B46" r:id="rId36" display="https://leetcode.com/problems/design-hashset"/>
+    <hyperlink ref="B47" r:id="rId37" display="https://leetcode.com/problems/maximize-distance-to-closest-person"/>
+    <hyperlink ref="B48" r:id="rId38" display="https://leetcode.com/problems/peak-index-in-a-mountain-array"/>
+    <hyperlink ref="B49" r:id="rId39" display="https://leetcode.com/problems/find-words-that-can-be-formed-by-characters"/>
+    <hyperlink ref="B51" r:id="rId40" display="https://leetcode.com/problems/longest-substring-without-repeating-characters"/>
+    <hyperlink ref="B52" r:id="rId41" display="https://leetcode.com/problems/longest-palindromic-substring"/>
+    <hyperlink ref="B53" r:id="rId42" display="https://leetcode.com/problems/container-with-most-water"/>
+    <hyperlink ref="B54" r:id="rId43" display="https://leetcode.com/problems/letter-combinations-of-a-phone-number"/>
+    <hyperlink ref="B55" r:id="rId44" display="https://leetcode.com/problems/generate-parentheses"/>
+    <hyperlink ref="B56" r:id="rId45" display="https://leetcode.com/problems/swap-nodes-in-pairs"/>
+    <hyperlink ref="B57" r:id="rId46" display="https://leetcode.com/problems/divide-two-integers"/>
+    <hyperlink ref="B58" r:id="rId47" display="https://leetcode.com/problems/next-permutation"/>
+    <hyperlink ref="B59" r:id="rId48" display="https://leetcode.com/problems/search-in-rotated-sorted-array"/>
+    <hyperlink ref="B60" r:id="rId49" display="https://leetcode.com/problems/permutations"/>
+    <hyperlink ref="B61" r:id="rId50" display="https://leetcode.com/problems/rotate-image"/>
+    <hyperlink ref="B62" r:id="rId51" display="https://leetcode.com/problems/group-anagrams"/>
+    <hyperlink ref="B63" r:id="rId52" display="https://leetcode.com/problems/merge-intervals"/>
+    <hyperlink ref="B64" r:id="rId53" display="https://leetcode.com/problems/sort-colors"/>
+    <hyperlink ref="B65" r:id="rId54" display="https://leetcode.com/problems/binary-tree-inorder-traversal"/>
+    <hyperlink ref="B66" r:id="rId55" display="https://leetcode.com/problems/binary-tree-level-order-traversal"/>
+    <hyperlink ref="B67" r:id="rId56" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal"/>
+    <hyperlink ref="B68" r:id="rId57" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii"/>
+    <hyperlink ref="B69" r:id="rId58" display="https://leetcode.com/problems/single-number-ii"/>
+    <hyperlink ref="B70" r:id="rId59" display="https://leetcode.com/problems/copy-list-with-random-pointer"/>
+    <hyperlink ref="B71" r:id="rId60" display="https://leetcode.com/problems/linked-list-cycle-ii"/>
+    <hyperlink ref="B72" r:id="rId61" display="https://leetcode.com/problems/lru-cache"/>
+    <hyperlink ref="B73" r:id="rId62" display="https://leetcode.com/problems/insertion-sort-list"/>
+    <hyperlink ref="B74" r:id="rId63" display="https://leetcode.com/problems/sort-list"/>
+    <hyperlink ref="B75" r:id="rId64" display="https://leetcode.com/problems/reverse-words-in-a-string"/>
+    <hyperlink ref="B76" r:id="rId65" display="https://leetcode.com/problems/fraction-to-recurring-decimal"/>
+    <hyperlink ref="B77" r:id="rId66" display="https://leetcode.com/problems/largest-number"/>
+    <hyperlink ref="B78" r:id="rId67" display="https://leetcode.com/problems/number-of-islands"/>
+    <hyperlink ref="B79" r:id="rId68" display="https://leetcode.com/problems/course-schedule"/>
+    <hyperlink ref="B80" r:id="rId69" display="https://leetcode.com/problems/implement-trie-prefix-tree"/>
+    <hyperlink ref="B81" r:id="rId70" display="https://leetcode.com/problems/course-schedule-ii"/>
+    <hyperlink ref="B82" r:id="rId71" display="https://leetcode.com/problems/house-robber-ii"/>
+    <hyperlink ref="B83" r:id="rId72" display="https://leetcode.com/problems/kth-largest-element-in-an-array"/>
+    <hyperlink ref="B84" r:id="rId73" display="https://leetcode.com/problems/combination-sum-iii"/>
+    <hyperlink ref="B85" r:id="rId74" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst"/>
+    <hyperlink ref="B86" r:id="rId75" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree"/>
+    <hyperlink ref="B87" r:id="rId76" display="https://leetcode.com/problems/find-the-celebrity"/>
+    <hyperlink ref="B88" r:id="rId77" display="https://leetcode.com/problems/game-of-life"/>
+    <hyperlink ref="B89" r:id="rId78" display="https://leetcode.com/problems/longest-increasing-subsequence"/>
+    <hyperlink ref="B90" r:id="rId79" display="https://leetcode.com/problems/range-sum-query-2d-immutable"/>
+    <hyperlink ref="B91" r:id="rId80" display="https://leetcode.com/problems/odd-even-linked-list"/>
+    <hyperlink ref="B92" r:id="rId81" display="https://leetcode.com/problems/counting-bits"/>
+    <hyperlink ref="B93" r:id="rId82" display="https://leetcode.com/problems/top-k-frequent-elements"/>
+    <hyperlink ref="B94" r:id="rId83" display="https://leetcode.com/problems/design-twitter"/>
+    <hyperlink ref="B95" r:id="rId84" display="https://leetcode.com/problems/combination-sum-iv"/>
+    <hyperlink ref="B96" r:id="rId85" display="https://leetcode.com/problems/pacific-atlantic-water-flow"/>
+    <hyperlink ref="B97" r:id="rId86" display="https://leetcode.com/problems/maximum-xor-of-two-numbers-in-an-array"/>
+    <hyperlink ref="B98" r:id="rId87" display="https://leetcode.com/problems/longest-repeating-character-replacement"/>
+    <hyperlink ref="B99" r:id="rId88" display="https://leetcode.com/problems/sequence-reconstruction"/>
+    <hyperlink ref="B100" r:id="rId89" display="https://leetcode.com/problems/4sum-ii"/>
+    <hyperlink ref="B101" r:id="rId90" display="https://leetcode.com/problems/longest-palindromic-subsequence"/>
+    <hyperlink ref="B102" r:id="rId91" display="https://leetcode.com/problems/contiguous-array"/>
+    <hyperlink ref="B103" r:id="rId92" display="https://leetcode.com/problems/minesweeper"/>
+    <hyperlink ref="B104" r:id="rId93" display="https://leetcode.com/problems/find-k-closest-elements"/>
+    <hyperlink ref="B105" r:id="rId94" display="https://leetcode.com/problems/partition-labels"/>
+    <hyperlink ref="B106" r:id="rId95" display="https://leetcode.com/problems/reorganize-string"/>
+    <hyperlink ref="B107" r:id="rId96" display="https://leetcode.com/problems/sum-of-subarray-minimums"/>
+    <hyperlink ref="B108" r:id="rId97" display="https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list"/>
+    <hyperlink ref="B109" r:id="rId98" display="https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit"/>
+    <hyperlink ref="B16" r:id="rId99"/>
+    <hyperlink ref="I16" r:id="rId100"/>
+    <hyperlink ref="B15" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
 </worksheet>
 </file>
 

--- a/Problem - Practice-DSA.xlsx
+++ b/Problem - Practice-DSA.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Githubrecord" sheetId="11" r:id="rId1"/>
     <sheet name="StudyDSA" sheetId="16" r:id="rId2"/>
-    <sheet name="Desgine pattern" sheetId="12" r:id="rId3"/>
-    <sheet name="System Degine" sheetId="15" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="must_do" sheetId="6" r:id="rId6"/>
-    <sheet name="more problem" sheetId="4" r:id="rId7"/>
-    <sheet name="Behavour" sheetId="5" r:id="rId8"/>
-    <sheet name="Dout" sheetId="2" r:id="rId9"/>
-    <sheet name="solution" sheetId="3" r:id="rId10"/>
-    <sheet name="Practice" sheetId="7" r:id="rId11"/>
-    <sheet name="seanparshad" sheetId="8" r:id="rId12"/>
-    <sheet name="More practice" sheetId="9" r:id="rId13"/>
-    <sheet name="SDESkills" sheetId="10" r:id="rId14"/>
+    <sheet name="Gammaprep" sheetId="17" r:id="rId3"/>
+    <sheet name="Desgine pattern" sheetId="12" r:id="rId4"/>
+    <sheet name="System Degine" sheetId="15" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="must_do" sheetId="6" r:id="rId7"/>
+    <sheet name="more problem" sheetId="4" r:id="rId8"/>
+    <sheet name="Behavour" sheetId="5" r:id="rId9"/>
+    <sheet name="Dout" sheetId="2" r:id="rId10"/>
+    <sheet name="solution" sheetId="3" r:id="rId11"/>
+    <sheet name="Practice" sheetId="7" r:id="rId12"/>
+    <sheet name="seanparshad" sheetId="8" r:id="rId13"/>
+    <sheet name="More practice" sheetId="9" r:id="rId14"/>
+    <sheet name="SDESkills" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="540">
   <si>
     <t>Srno</t>
   </si>
@@ -1423,12 +1424,258 @@
   <si>
     <t>https://leetcode.com/problems/integer-to-roman/</t>
   </si>
+  <si>
+    <t>Basic :</t>
+  </si>
+  <si>
+    <t>Print Hello World</t>
+  </si>
+  <si>
+    <t>Decision Making</t>
+  </si>
+  <si>
+    <t>Performing Arithmetic operations</t>
+  </si>
+  <si>
+    <t>Print a string n times</t>
+  </si>
+  <si>
+    <t>Swap two numbers</t>
+  </si>
+  <si>
+    <t>Reversing digits of a number</t>
+  </si>
+  <si>
+    <t>Decimal to any base conversion</t>
+  </si>
+  <si>
+    <t>Conversion from any base to Decimal</t>
+  </si>
+  <si>
+    <t>Conversion from Celsius to Fahrenheit</t>
+  </si>
+  <si>
+    <t>Print numbers from 1 to n without using loops</t>
+  </si>
+  <si>
+    <t>Middle of three</t>
+  </si>
+  <si>
+    <t>To check if a number is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Binary representation of a number</t>
+  </si>
+  <si>
+    <t>Mathematical :</t>
+  </si>
+  <si>
+    <t>Small factorial</t>
+  </si>
+  <si>
+    <t>Odd or Even</t>
+  </si>
+  <si>
+    <t>Calculating ab</t>
+  </si>
+  <si>
+    <t>Greatest of three numbers</t>
+  </si>
+  <si>
+    <t>Check if a number is a perfect square</t>
+  </si>
+  <si>
+    <t>All divisors of a natural number</t>
+  </si>
+  <si>
+    <t>Calculating nPr (Permutations)</t>
+  </si>
+  <si>
+    <t>Sum of AP</t>
+  </si>
+  <si>
+    <t>Sum of GP</t>
+  </si>
+  <si>
+    <t>Calculating Surface area and volume of cuboid</t>
+  </si>
+  <si>
+    <t>Calculating Compound Interest</t>
+  </si>
+  <si>
+    <t>Calculating Simple Interest</t>
+  </si>
+  <si>
+    <t>Printing Tables</t>
+  </si>
+  <si>
+    <t>Area of Rectangle,Right-Angled Triangle and Circle</t>
+  </si>
+  <si>
+    <t>Number of Open Doors</t>
+  </si>
+  <si>
+    <t>Number of integer solutions</t>
+  </si>
+  <si>
+    <t>Maximum possible sum of products</t>
+  </si>
+  <si>
+    <t>Remainder Solution</t>
+  </si>
+  <si>
+    <t>To check if given four points form a square or not</t>
+  </si>
+  <si>
+    <t>Overlapping rectangles</t>
+  </si>
+  <si>
+    <t>Sum of all prime numbers between 1 to n</t>
+  </si>
+  <si>
+    <t>To check if a number is power of another number</t>
+  </si>
+  <si>
+    <t>Common divisors</t>
+  </si>
+  <si>
+    <t>Composite series</t>
+  </si>
+  <si>
+    <t>Calculating Mean</t>
+  </si>
+  <si>
+    <t>Matching Pair</t>
+  </si>
+  <si>
+    <t>Perfect Number</t>
+  </si>
+  <si>
+    <t>Number of Divisors</t>
+  </si>
+  <si>
+    <t>Parallel or Perpendicular</t>
+  </si>
+  <si>
+    <t>Maximum Distance</t>
+  </si>
+  <si>
+    <t>Distance between two points</t>
+  </si>
+  <si>
+    <t>Tidy number</t>
+  </si>
+  <si>
+    <t>Proper divisors and XOR operation</t>
+  </si>
+  <si>
+    <t>Sum Palindrome</t>
+  </si>
+  <si>
+    <t>Patterns :</t>
+  </si>
+  <si>
+    <t>Number Pattern</t>
+  </si>
+  <si>
+    <t>Pattern printing</t>
+  </si>
+  <si>
+    <t>Triangle shrinking downwards</t>
+  </si>
+  <si>
+    <t>Triangle growing downwards</t>
+  </si>
+  <si>
+    <t>Pattren of strings</t>
+  </si>
+  <si>
+    <t>Y shaped pattern</t>
+  </si>
+  <si>
+    <t>Inverted triangle of stars</t>
+  </si>
+  <si>
+    <t>Array :</t>
+  </si>
+  <si>
+    <t>Print elements of array</t>
+  </si>
+  <si>
+    <t>Sum of array elements</t>
+  </si>
+  <si>
+    <t>Multiplying elements of an array</t>
+  </si>
+  <si>
+    <t>Search an element in array</t>
+  </si>
+  <si>
+    <t>Alone in couple</t>
+  </si>
+  <si>
+    <t>Finding second largest element in array</t>
+  </si>
+  <si>
+    <t>Binary array sorting</t>
+  </si>
+  <si>
+    <t>Immediate smaller element</t>
+  </si>
+  <si>
+    <t>Reversing an array by ‘d’ elements</t>
+  </si>
+  <si>
+    <t>Equal to Product</t>
+  </si>
+  <si>
+    <t>To check if an array is sorted or not</t>
+  </si>
+  <si>
+    <t>Finding roots of quadratic equation</t>
+  </si>
+  <si>
+    <t>Number of smaller and larger elements</t>
+  </si>
+  <si>
+    <t>Missing number</t>
+  </si>
+  <si>
+    <t>Reverse array in groups</t>
+  </si>
+  <si>
+    <t>Finding mean at every point</t>
+  </si>
+  <si>
+    <t>Print the left-most element</t>
+  </si>
+  <si>
+    <t>Compete the skills</t>
+  </si>
+  <si>
+    <t>Form largest number from digits</t>
+  </si>
+  <si>
+    <t>Find duplicates in an array</t>
+  </si>
+  <si>
+    <t>Matrix :</t>
+  </si>
+  <si>
+    <t>Diagonal Sum</t>
+  </si>
+  <si>
+    <t>Sum of elements in a matrix</t>
+  </si>
+  <si>
+    <t>Maximum sum of Hour Glass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1472,6 +1719,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1546,7 +1809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1607,6 +1870,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1892,7 +2161,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2842,6 +3111,48 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +3171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D8"/>
   <sheetViews>
@@ -2971,7 +3282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3048,7 +3359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3113,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3176,7 +3487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3904,6 +4215,514 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="63.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="28" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="27" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="12" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="12" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="12" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="27" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B55" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B56" s="12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B57" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B58" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B59" s="27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B60" s="12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B61" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B62" s="12" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B63" s="12" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B64" s="12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="12" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="27" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="12" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="12" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://practice.geeksforgeeks.org/problems/c-hello-world/0"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://practice.geeksforgeeks.org/problems/c-if-else-decision-making/0"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://practice.geeksforgeeks.org/problems/c-operators/0"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://practice.geeksforgeeks.org/problems/cpp-loops-set-1-print-a-string-n-times/0"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://practice.geeksforgeeks.org/problems/swap-two-numbers/0"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://practice.geeksforgeeks.org/problems/reverse-digit/0"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://practice.geeksforgeeks.org/problems/decimal-to-any-base-conversion/0"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://practice.geeksforgeeks.org/problems/convert-from-any-base-to-decimal/0"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://practice.geeksforgeeks.org/problems/celsius-to-fahrenheit-conversion/0"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://practice.geeksforgeeks.org/problems/print-1-to-n-without-using-loops/0"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://practice.geeksforgeeks.org/problems/middle-of-three/0"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://practice.geeksforgeeks.org/problems/palindrome/0"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://practice.geeksforgeeks.org/problems/binary-representation/0"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://practice.geeksforgeeks.org/problems/small-factorial/0"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://practice.geeksforgeeks.org/problems/odd-or-even/0"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://practice.geeksforgeeks.org/problems/ab-set-1/0"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://practice.geeksforgeeks.org/problems/greatest-of-three-numbers/0"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://practice.geeksforgeeks.org/problems/check-if-a-number-is-perfect-square/0"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://practice.geeksforgeeks.org/problems/all-divisors-of-a-natural-number/0"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://practice.geeksforgeeks.org/problems/npr/0"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://practice.geeksforgeeks.org/problems/sum-of-an-ap/0"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://practice.geeksforgeeks.org/problems/sum-of-gp/0"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://practice.geeksforgeeks.org/problems/surface-area-and-volume-of-cuboid/0"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://practice.geeksforgeeks.org/problems/compound-interest/0"/>
+    <hyperlink ref="B28" r:id="rId25" display="https://practice.geeksforgeeks.org/problems/simple-interest/0"/>
+    <hyperlink ref="B29" r:id="rId26" display="https://practice.geeksforgeeks.org/problems/print-table/0"/>
+    <hyperlink ref="B30" r:id="rId27" display="https://practice.geeksforgeeks.org/problems/area-of-rectange-right-angled-triangle-and-circle/0"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://practice.geeksforgeeks.org/problems/number-of-open-doors/0"/>
+    <hyperlink ref="B32" r:id="rId29" display="https://practice.geeksforgeeks.org/problems/number-of-integer-solutions/0"/>
+    <hyperlink ref="B33" r:id="rId30" display="https://practice.geeksforgeeks.org/problems/maximum-possible-sum-of-products/0"/>
+    <hyperlink ref="B34" r:id="rId31" display="https://practice.geeksforgeeks.org/problems/remainder-evaluation/0"/>
+    <hyperlink ref="B35" r:id="rId32" display="https://practice.geeksforgeeks.org/problems/check-if-given-four-points-form-a-square/0"/>
+    <hyperlink ref="B36" r:id="rId33" display="https://practice.geeksforgeeks.org/problems/overlapping-rectangles/0"/>
+    <hyperlink ref="B37" r:id="rId34" display="https://practice.geeksforgeeks.org/problems/sum-of-all-prime-numbers-between-1-and-n/0"/>
+    <hyperlink ref="B38" r:id="rId35" display="https://practice.geeksforgeeks.org/problems/check-if-a-number-is-power-of-another-number/0"/>
+    <hyperlink ref="B39" r:id="rId36" display="https://practice.geeksforgeeks.org/problems/common-divisors/0"/>
+    <hyperlink ref="B40" r:id="rId37" display="https://practice.geeksforgeeks.org/problems/composite-series/0"/>
+    <hyperlink ref="B41" r:id="rId38" display="https://practice.geeksforgeeks.org/problems/mean/0"/>
+    <hyperlink ref="B42" r:id="rId39" display="https://practice.geeksforgeeks.org/problems/matching-pair/0"/>
+    <hyperlink ref="B43" r:id="rId40" display="https://practice.geeksforgeeks.org/problems/perfect-number/0"/>
+    <hyperlink ref="B44" r:id="rId41" display="https://practice.geeksforgeeks.org/problems/number-of-divisors/0"/>
+    <hyperlink ref="B45" r:id="rId42" display="https://practice.geeksforgeeks.org/problems/parallel-or-perpendicular/0"/>
+    <hyperlink ref="B46" r:id="rId43" display="https://practice.geeksforgeeks.org/problems/maximum-distance/0"/>
+    <hyperlink ref="B47" r:id="rId44" display="https://practice.geeksforgeeks.org/problems/distance-between-2-points/0"/>
+    <hyperlink ref="B48" r:id="rId45" display="https://practice.geeksforgeeks.org/problems/tidy-number/0"/>
+    <hyperlink ref="B49" r:id="rId46" display="https://practice.geeksforgeeks.org/problems/xor-play/0"/>
+    <hyperlink ref="B50" r:id="rId47" display="https://practice.geeksforgeeks.org/problems/sum-palindrome/0"/>
+    <hyperlink ref="B52" r:id="rId48" display="https://practice.geeksforgeeks.org/problems/number-pattern/0"/>
+    <hyperlink ref="B53" r:id="rId49" display="https://practice.geeksforgeeks.org/problems/pattern-printing/0"/>
+    <hyperlink ref="B54" r:id="rId50" display="https://practice.geeksforgeeks.org/problems/triangle-shrinking-downwards/0"/>
+    <hyperlink ref="B55" r:id="rId51" display="https://practice.geeksforgeeks.org/problems/triangle-growing-downwards/0"/>
+    <hyperlink ref="B56" r:id="rId52" display="https://practice.geeksforgeeks.org/problems/pattern-of-strings/0"/>
+    <hyperlink ref="B57" r:id="rId53" display="https://practice.geeksforgeeks.org/problems/y-shaped-pattern/0"/>
+    <hyperlink ref="B58" r:id="rId54" display="https://practice.geeksforgeeks.org/problems/inverted-triangle-of-stars/0"/>
+    <hyperlink ref="B60" r:id="rId55" display="https://practice.geeksforgeeks.org/problems/print-elements-of-array/0"/>
+    <hyperlink ref="B61" r:id="rId56" display="https://practice.geeksforgeeks.org/problems/sum-of-array-elements/0"/>
+    <hyperlink ref="B62" r:id="rId57" display="https://practice.geeksforgeeks.org/problems/multiply-array/0"/>
+    <hyperlink ref="B63" r:id="rId58" display="https://practice.geeksforgeeks.org/problems/search-an-element-in-an-array/0"/>
+    <hyperlink ref="B64" r:id="rId59" display="https://practice.geeksforgeeks.org/problems/alone-in-couple/0"/>
+    <hyperlink ref="B65" r:id="rId60" display="https://practice.geeksforgeeks.org/problems/second-largest/0"/>
+    <hyperlink ref="B66" r:id="rId61" display="https://practice.geeksforgeeks.org/problems/binary-array-sorting/0"/>
+    <hyperlink ref="B67" r:id="rId62" display="https://practice.geeksforgeeks.org/problems/immediate-smaller-element/0"/>
+    <hyperlink ref="B68" r:id="rId63" display="https://practice.geeksforgeeks.org/problems/reversal-algorithm/0"/>
+    <hyperlink ref="B69" r:id="rId64" display="https://practice.geeksforgeeks.org/problems/equal-to-product/0"/>
+    <hyperlink ref="B70" r:id="rId65" display="https://practice.geeksforgeeks.org/problems/check-if-an-array-is-sorted/0"/>
+    <hyperlink ref="B71" r:id="rId66" display="https://practice.geeksforgeeks.org/problems/roots-of-quadratic-equation/0"/>
+    <hyperlink ref="B72" r:id="rId67" display="https://practice.geeksforgeeks.org/problems/smaller-and-larger/0"/>
+    <hyperlink ref="B73" r:id="rId68" display="https://practice.geeksforgeeks.org/problems/missing-number/0"/>
+    <hyperlink ref="B74" r:id="rId69" display="https://practice.geeksforgeeks.org/problems/reverse-array-in-groups/0"/>
+    <hyperlink ref="B75" r:id="rId70" display="https://practice.geeksforgeeks.org/problems/average/0"/>
+    <hyperlink ref="B76" r:id="rId71" display="https://practice.geeksforgeeks.org/problems/print-the-left-element/0"/>
+    <hyperlink ref="B77" r:id="rId72" display="https://practice.geeksforgeeks.org/problems/compete-the-skills/0"/>
+    <hyperlink ref="B78" r:id="rId73" display="https://practice.geeksforgeeks.org/problems/form-largest-number-from-digits/0"/>
+    <hyperlink ref="B79" r:id="rId74" display="https://practice.geeksforgeeks.org/problems/find-duplicates-under-given-constraints/0"/>
+    <hyperlink ref="B81" r:id="rId75" display="https://practice.geeksforgeeks.org/problems/diagonal-sum/0"/>
+    <hyperlink ref="B82" r:id="rId76" display="https://practice.geeksforgeeks.org/problems/sum-of-elements-in-a-matrix/0"/>
+    <hyperlink ref="B83" r:id="rId77" display="https://practice.geeksforgeeks.org/problems/maximum-sum-of-hour-glass/0"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId78"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4007,7 +4826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -4090,7 +4909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H120"/>
   <sheetViews>
@@ -5403,7 +6222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -5702,7 +6521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
@@ -5764,7 +6583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B40"/>
   <sheetViews>
@@ -5965,46 +6784,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>